--- a/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 16,93</t>
+          <t>-22,77; 16,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 45,94</t>
+          <t>2,97; 45,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 27,45</t>
+          <t>-2,56; 28,68</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 124,06</t>
+          <t>-63,17; 120,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 323,34</t>
+          <t>7,65; 303,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 147,64</t>
+          <t>-9,79; 168,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 22,32</t>
+          <t>-11,52; 21,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 4,63</t>
+          <t>-22,06; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 31,69</t>
+          <t>6,63; 32,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 23,52</t>
+          <t>-2,87; 23,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 24,07</t>
+          <t>2,89; 23,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 11,59</t>
+          <t>-6,55; 11,79</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 141,22</t>
+          <t>-34,99; 130,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 31,44</t>
+          <t>-66,93; 29,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 188,93</t>
+          <t>19,46; 185,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 140,95</t>
+          <t>-12,47; 138,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 138,49</t>
+          <t>7,81; 120,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 63,84</t>
+          <t>-23,73; 60,32</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 23,05</t>
+          <t>-10,33; 21,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 15,45</t>
+          <t>-12,79; 16,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 5,93</t>
+          <t>-25,64; 5,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -6,43</t>
+          <t>-35,19; -5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 7,37</t>
+          <t>-14,21; 8,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -1,54</t>
+          <t>-22,71; -1,37</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 185,14</t>
+          <t>-40,24; 178,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 121,84</t>
+          <t>-42,67; 126,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 17,99</t>
+          <t>-50,45; 15,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,46; -16,49</t>
+          <t>-71,82; -12,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 26,28</t>
+          <t>-37,67; 29,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,09; -5,73</t>
+          <t>-56,96; -3,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 19,38</t>
+          <t>-9,93; 18,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 13,36</t>
+          <t>-18,5; 11,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 21,44</t>
+          <t>-5,48; 22,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 3,41</t>
+          <t>-28,23; 3,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 16,31</t>
+          <t>-3,52; 17,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 2,24</t>
+          <t>-19,25; 2,14</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 99,61</t>
+          <t>-26,93; 102,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 72,29</t>
+          <t>-53,91; 64,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 58,53</t>
+          <t>-9,73; 66,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 9,64</t>
+          <t>-54,22; 10,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 53,85</t>
+          <t>-8,25; 56,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 7,76</t>
+          <t>-44,75; 7,56</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 23,42</t>
+          <t>-23,37; 22,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -0,42</t>
+          <t>-35,37; -0,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 35,73</t>
+          <t>-7,04; 33,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 30,2</t>
+          <t>-10,35; 29,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 23,1</t>
+          <t>-7,68; 23,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,07</t>
+          <t>-17,16; 13,25</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 136,49</t>
+          <t>-59,82; 130,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,19; 10,61</t>
+          <t>-85,88; 18,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 131,22</t>
+          <t>-13,23; 131,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 122,58</t>
+          <t>-21,17; 114,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 89,02</t>
+          <t>-19,38; 93,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 48,0</t>
+          <t>-43,1; 53,8</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 16,42</t>
+          <t>-21,83; 15,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 10,31</t>
+          <t>-25,82; 10,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 14,8</t>
+          <t>-22,38; 11,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,32</t>
+          <t>-19,21; 5,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 6,57</t>
+          <t>-17,62; 7,25</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 57,77</t>
+          <t>-47,55; 54,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 40,46</t>
+          <t>-52,51; 40,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 49,83</t>
+          <t>-46,6; 38,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 16,65</t>
+          <t>-41,59; 18,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 19,15</t>
+          <t>-39,48; 22,91</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 19,29</t>
+          <t>-4,17; 19,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,95</t>
+          <t>-3,84; 17,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 13,69</t>
+          <t>-10,96; 13,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 20,85</t>
+          <t>-4,78; 20,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 12,92</t>
+          <t>-4,52; 12,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 16,39</t>
+          <t>-0,15; 17,16</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 142,76</t>
+          <t>-18,74; 140,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 128,27</t>
+          <t>-17,85; 134,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 50,94</t>
+          <t>-27,23; 48,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 77,6</t>
+          <t>-12,71; 81,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 58,03</t>
+          <t>-15,05; 56,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 72,85</t>
+          <t>-2,24; 76,51</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-25,77; -3,33</t>
+          <t>-26,72; -2,97</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -3,25</t>
+          <t>-25,13; -3,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 9,41</t>
+          <t>-12,99; 9,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 11,64</t>
+          <t>-10,77; 11,85</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,63</t>
+          <t>-14,45; 1,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 2,36</t>
+          <t>-13,99; 2,5</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -8,45</t>
+          <t>-70,71; -12,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -11,86</t>
+          <t>-64,16; -10,44</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 36,11</t>
+          <t>-34,71; 36,04</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 42,11</t>
+          <t>-28,92; 46,58</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 3,26</t>
+          <t>-40,62; 4,28</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 8,51</t>
+          <t>-39,83; 9,35</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,87; 5,84</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,26; -0,89</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,9; 9,78</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-3,89; 6,27</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,36; 6,39</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,27; 2,33</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-17,4; 24,59</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,98; -3,09</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,57; 31,39</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-10,57; 19,88</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-4,38; 22,22</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,88; 8,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 16,21</t>
+          <t>-19,67; 16,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 45,54</t>
+          <t>1,99; 46,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 28,68</t>
+          <t>-1,44; 29,12</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,17; 120,25</t>
+          <t>-58,31; 111,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 303,49</t>
+          <t>4,01; 295,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 168,04</t>
+          <t>-6,41; 155,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 21,03</t>
+          <t>-12,74; 19,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 3,87</t>
+          <t>-22,95; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 32,6</t>
+          <t>5,82; 32,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 23,47</t>
+          <t>-2,11; 23,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 23,59</t>
+          <t>3,15; 23,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 11,79</t>
+          <t>-6,98; 11,37</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 130,42</t>
+          <t>-39,83; 114,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 29,46</t>
+          <t>-67,18; 28,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 185,06</t>
+          <t>18,78; 192,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 138,2</t>
+          <t>-7,91; 137,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 120,13</t>
+          <t>8,89; 119,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 60,32</t>
+          <t>-25,32; 60,91</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 21,35</t>
+          <t>-10,0; 23,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 16,78</t>
+          <t>-11,23; 16,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 5,63</t>
+          <t>-25,34; 5,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,19; -5,25</t>
+          <t>-35,52; -6,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 8,5</t>
+          <t>-15,56; 7,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -1,37</t>
+          <t>-22,45; -0,66</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 178,5</t>
+          <t>-40,58; 188,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 126,06</t>
+          <t>-41,34; 140,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 15,89</t>
+          <t>-49,77; 16,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -12,33</t>
+          <t>-72,48; -16,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 29,14</t>
+          <t>-38,76; 28,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,96; -3,87</t>
+          <t>-55,98; -2,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 18,57</t>
+          <t>-9,48; 18,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 11,71</t>
+          <t>-19,47; 10,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 22,7</t>
+          <t>-5,38; 21,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 3,38</t>
+          <t>-28,06; 4,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 17,04</t>
+          <t>-4,92; 16,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 2,14</t>
+          <t>-19,48; 2,75</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 102,28</t>
+          <t>-27,32; 104,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,91; 64,33</t>
+          <t>-53,08; 60,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 66,38</t>
+          <t>-9,34; 60,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 10,65</t>
+          <t>-55,14; 12,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 56,96</t>
+          <t>-11,38; 54,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 7,56</t>
+          <t>-45,73; 8,29</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 22,4</t>
+          <t>-23,9; 19,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -0,07</t>
+          <t>-36,42; -0,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 33,21</t>
+          <t>-10,09; 33,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 29,93</t>
+          <t>-12,26; 30,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 23,76</t>
+          <t>-10,13; 22,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 13,25</t>
+          <t>-19,3; 10,52</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 130,87</t>
+          <t>-63,25; 116,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,88; 18,71</t>
+          <t>-87,28; 4,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 131,36</t>
+          <t>-19,65; 134,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 114,33</t>
+          <t>-24,3; 123,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 93,79</t>
+          <t>-23,9; 84,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 53,8</t>
+          <t>-44,9; 37,56</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 15,63</t>
+          <t>-21,68; 15,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 10,61</t>
+          <t>-24,56; 10,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 6,44</t>
+          <t>-25,59; 6,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 11,7</t>
+          <t>-22,36; 12,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 5,41</t>
+          <t>-19,26; 5,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 7,25</t>
+          <t>-18,09; 7,55</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 54,84</t>
+          <t>-45,17; 55,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 40,97</t>
+          <t>-51,67; 38,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 21,67</t>
+          <t>-54,52; 22,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 38,77</t>
+          <t>-48,31; 38,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 18,59</t>
+          <t>-42,07; 17,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 22,91</t>
+          <t>-40,0; 23,08</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 19,3</t>
+          <t>-2,9; 19,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 17,6</t>
+          <t>-4,79; 17,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 13,17</t>
+          <t>-9,52; 14,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 20,54</t>
+          <t>-3,51; 20,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 12,7</t>
+          <t>-4,4; 12,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 17,16</t>
+          <t>-0,37; 16,29</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 140,13</t>
+          <t>-14,17; 153,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 134,81</t>
+          <t>-21,69; 132,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 48,05</t>
+          <t>-24,36; 57,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 81,21</t>
+          <t>-9,32; 76,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 56,05</t>
+          <t>-14,46; 55,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 76,51</t>
+          <t>-1,59; 75,58</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,72; -2,97</t>
+          <t>-25,58; -2,62</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -3,24</t>
+          <t>-24,84; -2,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 9,15</t>
+          <t>-12,93; 8,92</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 11,85</t>
+          <t>-10,43; 11,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 1,02</t>
+          <t>-14,79; 0,75</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 2,5</t>
+          <t>-13,61; 2,29</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-70,71; -12,63</t>
+          <t>-68,63; -6,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -10,44</t>
+          <t>-65,09; -9,96</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 36,04</t>
+          <t>-34,34; 34,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 46,58</t>
+          <t>-27,07; 44,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 4,28</t>
+          <t>-41,95; 2,96</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 9,35</t>
+          <t>-37,99; 8,86</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,84</t>
+          <t>-4,99; 5,96</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,89</t>
+          <t>-10,28; -0,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,78</t>
+          <t>-1,31; 9,36</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,27</t>
+          <t>-4,38; 6,52</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,39</t>
+          <t>-0,99; 6,32</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,33</t>
+          <t>-5,44; 2,05</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 24,59</t>
+          <t>-17,42; 24,45</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,09</t>
+          <t>-35,75; -2,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 31,39</t>
+          <t>-3,34; 29,4</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 19,88</t>
+          <t>-11,98; 20,16</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 22,22</t>
+          <t>-2,92; 22,04</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 8,15</t>
+          <t>-16,34; 7,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 16,16</t>
+          <t>-20,23; 16,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 46,01</t>
+          <t>4,66; 45,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 29,12</t>
+          <t>-1,59; 27,45</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 111,46</t>
+          <t>-62,02; 124,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 295,3</t>
+          <t>11,65; 323,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 155,28</t>
+          <t>-6,09; 147,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 19,26</t>
+          <t>-10,08; 22,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 3,26</t>
+          <t>-22,43; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 32,34</t>
+          <t>6,04; 31,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 23,94</t>
+          <t>-2,9; 23,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 23,15</t>
+          <t>2,85; 24,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 11,37</t>
+          <t>-7,95; 11,59</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 114,54</t>
+          <t>-33,15; 141,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 28,24</t>
+          <t>-68,64; 31,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 192,72</t>
+          <t>17,91; 188,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 137,32</t>
+          <t>-10,1; 140,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 119,32</t>
+          <t>9,88; 138,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 60,91</t>
+          <t>-27,89; 63,84</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 23,66</t>
+          <t>-10,78; 23,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 16,8</t>
+          <t>-12,66; 15,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 5,07</t>
+          <t>-25,15; 5,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,52; -6,46</t>
+          <t>-35,45; -6,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 7,88</t>
+          <t>-15,22; 7,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -0,66</t>
+          <t>-22,52; -1,54</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 188,13</t>
+          <t>-37,25; 185,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 140,87</t>
+          <t>-42,18; 121,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 16,32</t>
+          <t>-51,58; 17,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,48; -16,78</t>
+          <t>-72,46; -16,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 28,6</t>
+          <t>-38,06; 26,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -2,54</t>
+          <t>-59,09; -5,73</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 18,58</t>
+          <t>-10,27; 19,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 10,48</t>
+          <t>-18,53; 13,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 21,21</t>
+          <t>-4,45; 21,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 4,26</t>
+          <t>-27,84; 3,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 16,84</t>
+          <t>-4,72; 16,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 2,75</t>
+          <t>-20,04; 2,24</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 104,23</t>
+          <t>-29,32; 99,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 60,97</t>
+          <t>-52,74; 72,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 60,45</t>
+          <t>-9,06; 58,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 12,13</t>
+          <t>-54,44; 9,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 54,1</t>
+          <t>-11,13; 53,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 8,29</t>
+          <t>-47,71; 7,76</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 19,96</t>
+          <t>-23,3; 23,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -0,64</t>
+          <t>-36,3; -0,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 33,55</t>
+          <t>-6,34; 35,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 30,08</t>
+          <t>-10,62; 30,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 22,78</t>
+          <t>-8,22; 23,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 10,52</t>
+          <t>-16,98; 12,07</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 116,1</t>
+          <t>-61,62; 136,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 4,53</t>
+          <t>-86,19; 10,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 134,99</t>
+          <t>-15,49; 131,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 123,58</t>
+          <t>-23,64; 122,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 84,89</t>
+          <t>-20,61; 89,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 37,56</t>
+          <t>-41,03; 48,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 15,51</t>
+          <t>-22,01; 16,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 10,26</t>
+          <t>-23,72; 10,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 6,47</t>
+          <t>-26,25; 6,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 12,3</t>
+          <t>-22,88; 14,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 5,73</t>
+          <t>-18,22; 5,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 7,55</t>
+          <t>-18,28; 6,57</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 55,43</t>
+          <t>-47,6; 57,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 38,87</t>
+          <t>-49,98; 40,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 22,29</t>
+          <t>-53,75; 21,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,31; 38,11</t>
+          <t>-47,89; 49,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 17,57</t>
+          <t>-39,89; 16,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 23,08</t>
+          <t>-40,69; 19,15</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 19,35</t>
+          <t>-3,5; 19,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 17,02</t>
+          <t>-3,98; 16,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 14,77</t>
+          <t>-10,73; 13,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 20,42</t>
+          <t>-3,61; 20,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 12,3</t>
+          <t>-3,46; 12,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 16,29</t>
+          <t>-1,18; 16,39</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 153,93</t>
+          <t>-15,6; 142,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 132,45</t>
+          <t>-19,6; 128,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 57,08</t>
+          <t>-27,71; 50,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 76,03</t>
+          <t>-8,78; 77,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 55,37</t>
+          <t>-12,66; 58,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 75,58</t>
+          <t>-4,93; 72,85</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-25,58; -2,62</t>
+          <t>-25,77; -3,33</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,84; -2,24</t>
+          <t>-24,69; -3,25</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 8,92</t>
+          <t>-12,25; 9,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 11,44</t>
+          <t>-9,61; 11,64</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 0,75</t>
+          <t>-14,56; 0,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 2,29</t>
+          <t>-13,7; 2,36</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -6,06</t>
+          <t>-68,34; -8,45</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,09; -9,96</t>
+          <t>-64,85; -11,86</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 34,77</t>
+          <t>-34,18; 36,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 44,18</t>
+          <t>-26,65; 42,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 2,96</t>
+          <t>-41,65; 3,26</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 8,86</t>
+          <t>-38,28; 8,51</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,96</t>
+          <t>-5,03; 5,95</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,58</t>
+          <t>-10,62; -0,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,36</t>
+          <t>-1,06; 9,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 6,52</t>
+          <t>-4,02; 6,8</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,32</t>
+          <t>-1,7; 6,01</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,41; 1,86</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 24,45</t>
+          <t>-17,24; 26,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -2,57</t>
+          <t>-35,6; -3,53</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 29,4</t>
+          <t>-3,13; 30,04</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 20,16</t>
+          <t>-11,17; 21,62</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 22,04</t>
+          <t>-4,96; 20,82</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 7,05</t>
+          <t>-16,63; 6,46</t>
         </is>
       </c>
     </row>
